--- a/input/Financial Statement CRM/Cashflow Statements All-CRM.xlsx
+++ b/input/Financial Statement CRM/Cashflow Statements All-CRM.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,34 +859,6 @@
       <c r="B43" t="n">
         <v>15215</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1695,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,26 +2072,6 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2132,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,34 +2499,6 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2587,7 +2511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3012,34 +2936,6 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4315,7 +4211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4751,26 +4647,6 @@
         <v>11064</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
